--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-T-V.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-T-V.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF949939-162E-4E60-B3F6-DB9C4C0F329F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2D6275-1A5A-42C0-A179-585AEF961B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82485" yWindow="375" windowWidth="31200" windowHeight="21360" activeTab="6" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" activeTab="6" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="30">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -138,8 +138,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -190,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -207,10 +208,12 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,10 +573,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2234,10 +2237,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -4212,10 +4215,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -6130,7 +6133,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q69" sqref="Q69:X69"/>
+      <selection pane="bottomLeft" activeCell="Q57" sqref="Q57:W69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6146,10 +6149,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -7269,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -7341,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -7380,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -7452,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -7488,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -7524,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -7548,8 +7551,8 @@
       <c r="I56" s="3">
         <v>29709</v>
       </c>
-      <c r="J56" s="6">
-        <v>0.81100000000000005</v>
+      <c r="J56" s="14">
+        <v>0.61099999999999999</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="0"/>
@@ -7560,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -7598,8 +7601,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="13"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -7635,7 +7643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -7671,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -7707,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -7743,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -7779,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -7818,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8002,7 +8010,7 @@
       <c r="C69" s="8">
         <v>13682</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="12">
         <v>75526</v>
       </c>
       <c r="E69" s="8"/>
@@ -8013,11 +8021,11 @@
         <v>14701</v>
       </c>
       <c r="H69" s="8"/>
-      <c r="I69" s="13">
+      <c r="I69" s="12">
         <v>68084</v>
       </c>
-      <c r="J69" s="9">
-        <v>1.306</v>
+      <c r="J69" s="14">
+        <v>1.06</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -8031,10 +8039,10 @@
         <v>6</v>
       </c>
       <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
       <c r="S69" s="3"/>
-      <c r="U69" s="3"/>
+      <c r="T69" s="3"/>
       <c r="V69" s="3"/>
+      <c r="W69" s="13"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
     </row>
@@ -8185,10 +8193,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -8762,7 +8770,7 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>13295</v>
       </c>
       <c r="J19" s="6">
@@ -8797,7 +8805,7 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>13506</v>
       </c>
       <c r="J20" s="6">
@@ -10732,11 +10740,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F673B36-D293-41E6-97B3-C7A688E3D74F}">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10753,10 +10761,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -10961,7 +10969,7 @@
         <v>-2.2939999999944121</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O5:O68" si="1">D8-G8+F8-I8</f>
+        <f t="shared" ref="O8:O68" si="1">D8-G8+F8-I8</f>
         <v>0</v>
       </c>
     </row>
@@ -12380,8 +12388,8 @@
       <c r="I51" s="8">
         <v>118374</v>
       </c>
-      <c r="J51" s="9">
-        <v>4.1399999999999997</v>
+      <c r="J51" s="14">
+        <v>3.1139999999999999</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -12812,210 +12820,340 @@
       <c r="A64" s="1">
         <v>1975</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="B64" s="3">
+        <v>1083</v>
+      </c>
+      <c r="C64" s="3">
+        <v>31394</v>
+      </c>
+      <c r="D64" s="3">
+        <v>34000</v>
+      </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="F64" s="3">
+        <v>31900</v>
+      </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="6"/>
+      <c r="I64" s="3">
+        <v>65900</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1.099</v>
+      </c>
       <c r="M64" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.29800000000250293</v>
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="3">
+        <v>1360</v>
+      </c>
+      <c r="C65" s="3">
+        <v>30882</v>
+      </c>
+      <c r="D65" s="3">
+        <v>42000</v>
+      </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="F65" s="3">
+        <v>240</v>
+      </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="6"/>
+      <c r="I65" s="3">
+        <v>42240</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0.68300000000000005</v>
+      </c>
       <c r="M65" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.48000000000320142</v>
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="B66" s="3">
+        <v>817</v>
+      </c>
+      <c r="C66" s="3">
+        <v>91799</v>
+      </c>
+      <c r="D66" s="3">
+        <v>75000</v>
+      </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="F66" s="3">
+        <v>140</v>
+      </c>
+      <c r="G66" s="3">
+        <v>7556</v>
+      </c>
       <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="6"/>
+      <c r="I66" s="3">
+        <v>67584</v>
+      </c>
+      <c r="J66" s="6">
+        <v>1.06</v>
+      </c>
       <c r="M66" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.21700000000419095</v>
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="3">
+        <v>378</v>
+      </c>
+      <c r="C67" s="3">
+        <v>42328</v>
+      </c>
+      <c r="D67" s="3">
+        <v>16000</v>
+      </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="F67" s="3">
+        <v>23636</v>
+      </c>
+      <c r="G67" s="3">
+        <v>6715</v>
+      </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="6"/>
+      <c r="I67" s="12">
+        <v>32921</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0.54700000000000004</v>
+      </c>
       <c r="M67" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.599999999962165E-2</v>
       </c>
       <c r="O67">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="B68" s="3">
+        <v>415</v>
+      </c>
+      <c r="C68" s="3">
+        <v>21687</v>
+      </c>
+      <c r="D68" s="3">
+        <v>9000</v>
+      </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="F68" s="3">
+        <v>32427</v>
+      </c>
+      <c r="G68" s="3">
+        <v>688</v>
+      </c>
       <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="6"/>
+      <c r="I68" s="3">
+        <v>40739</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0.60299999999999998</v>
+      </c>
       <c r="M68" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10499999999956344</v>
       </c>
       <c r="O68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="B69" s="8">
+        <v>811</v>
+      </c>
+      <c r="C69" s="8">
+        <v>43403</v>
+      </c>
+      <c r="D69" s="8">
+        <v>35200</v>
+      </c>
       <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="F69" s="8">
+        <v>17669</v>
+      </c>
+      <c r="G69" s="12">
+        <v>2992</v>
+      </c>
       <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="9"/>
+      <c r="I69" s="8">
+        <v>50477</v>
+      </c>
+      <c r="J69" s="9">
+        <v>0.79200000000000004</v>
+      </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
       <c r="M69" s="11">
         <f t="shared" ref="M69:M72" si="2">B69*C69/1000 -D69</f>
-        <v>0</v>
+        <v>-0.16700000000128057</v>
       </c>
       <c r="N69" s="10"/>
       <c r="O69" s="10">
         <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>-600</v>
+      </c>
+      <c r="Q69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="B70" s="3">
+        <v>412</v>
+      </c>
+      <c r="C70" s="3">
+        <v>50971</v>
+      </c>
+      <c r="D70" s="3">
+        <v>21000</v>
+      </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="F70" s="3">
+        <v>11458</v>
+      </c>
+      <c r="G70" s="3">
+        <v>44</v>
+      </c>
       <c r="H70" s="3"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="6"/>
+      <c r="I70" s="5">
+        <v>32414</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0.46700000000000003</v>
+      </c>
       <c r="M70" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.1999999999679858E-2</v>
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="B71" s="3">
+        <v>217</v>
+      </c>
+      <c r="C71" s="3">
+        <v>45622</v>
+      </c>
+      <c r="D71" s="3">
+        <v>99000</v>
+      </c>
       <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="F71" s="3">
+        <v>21639</v>
+      </c>
+      <c r="G71" s="3">
+        <v>386</v>
+      </c>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="6"/>
+      <c r="I71" s="3">
+        <v>120253</v>
+      </c>
+      <c r="J71" s="6">
+        <v>1.6879999999999999</v>
+      </c>
       <c r="M71" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-89100.025999999998</v>
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="B72" s="3">
+        <v>220</v>
+      </c>
+      <c r="C72" s="3">
+        <v>152250</v>
+      </c>
+      <c r="D72" s="3">
+        <v>34375</v>
+      </c>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="F72" s="3">
+        <v>15670</v>
+      </c>
+      <c r="G72" s="3">
+        <v>609</v>
+      </c>
       <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="6"/>
+      <c r="I72" s="3">
+        <v>49436</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0.67600000000000005</v>
+      </c>
       <c r="M72" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-880</v>
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-T-V.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-T-V.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2D6275-1A5A-42C0-A179-585AEF961B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0771BE2-B3F8-4AEC-B77B-08705970D275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" activeTab="6" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="63000" yWindow="1095" windowWidth="24690" windowHeight="21105" activeTab="6" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="34">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>причина расхождения неясна</t>
+  </si>
+  <si>
+    <t>note:</t>
+  </si>
+  <si>
+    <t>Отрицательное потребление связано с тем, что экспорт превышает производство, из-за того, что сельскохозяйственный цикл не совпадает с коммерческим циклом и остатки предыдущих урожаев вывозятся на экспорт.</t>
+  </si>
+  <si>
+    <t>C 1970 по 1974 гг. включен экстракт ванили. В последующие годы фракция исчезает.</t>
+  </si>
+  <si>
+    <t>С 1970 года экспортируемый объем ванильного экстракта включает упаковку.</t>
   </si>
 </sst>
 </file>
@@ -10740,11 +10752,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F673B36-D293-41E6-97B3-C7A688E3D74F}">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:W80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13154,7 +13166,25 @@
       <c r="J74" s="6"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>30</v>
+      </c>
       <c r="J75" s="6"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
